--- a/DMSNewVSale_2025-11-23_18-00.xlsx
+++ b/DMSNewVSale_2025-11-23_18-00.xlsx
@@ -308,6 +308,18 @@
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
+    <t>JANCA-Z TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>LAMICTAL 100MG 30 TAB.</t>
   </si>
   <si>
@@ -330,9 +342,6 @@
   </si>
   <si>
     <t>LEYLAC CLEANSER</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>289.00</t>
@@ -2099,24 +2108,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2125,14 +2134,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2149,7 +2158,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2165,13 +2174,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2204,7 +2213,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2231,7 +2240,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2241,7 +2250,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2274,14 +2283,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2290,14 +2299,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2307,11 +2316,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>23</v>
@@ -2323,14 +2332,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2347,7 +2356,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2406,11 +2415,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>15</v>
@@ -2422,7 +2431,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2439,14 +2448,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2462,7 +2471,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2472,11 +2481,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>67</v>
@@ -2505,14 +2514,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2521,14 +2530,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2538,14 +2547,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2554,14 +2563,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2578,7 +2587,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2594,7 +2603,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2604,11 +2613,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>15</v>
@@ -2620,20 +2629,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2660,24 +2669,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2686,20 +2695,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2710,7 +2719,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2726,13 +2735,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2759,13 +2768,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2792,13 +2801,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2809,7 +2818,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2831,7 +2840,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2864,7 +2873,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2875,7 +2884,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2897,15 +2906,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>67</v>
@@ -2917,31 +2926,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2950,28 +2959,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>15</v>
@@ -2983,68 +2992,101 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="62" ht="26.25" customHeight="1">
-      <c r="N62" s="13">
-        <v>4959.3950000000004</v>
-      </c>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>182</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>183</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>184</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>150</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>100</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>164</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" ht="25.5" customHeight="1">
+      <c r="N63" s="13">
+        <v>4984.1450000000004</v>
+      </c>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>185</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>186</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>187</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3328,10 +3370,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
